--- a/KW/Windows_H2.xlsx
+++ b/KW/Windows_H2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="H2-1" sheetId="11" r:id="rId1"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5917,8 +5917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KW/Windows_H2.xlsx
+++ b/KW/Windows_H2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="H2-1" sheetId="11" r:id="rId1"/>
@@ -651,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
@@ -3823,10 +3823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U57"/>
+  <dimension ref="A2:V57"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S58" sqref="S58"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6425,7 +6425,7 @@
         <v>4.5629999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="5">
         <v>24</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>4.5570000000000004</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="5">
         <v>35</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="5">
         <v>35</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
         <v>35</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
         <v>35</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="5">
         <v>37</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="5">
         <v>10</v>
       </c>
@@ -6828,8 +6828,14 @@
       <c r="T55" s="25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="5">
+        <v>13.48</v>
+      </c>
+      <c r="V55" s="5">
+        <v>7.6639999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
         <v>37</v>
       </c>
@@ -6888,7 +6894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="5">
         <v>10</v>
       </c>
@@ -6958,7 +6964,7 @@
   <dimension ref="A2:U57"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:S13"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
